--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1043718.107124047</v>
+        <v>1072562.417878774</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>189902.9539564203</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728807</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>356.9114960537121</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>128.0041052504328</v>
       </c>
     </row>
     <row r="3">
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>202.4645461790999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>103.5274726747898</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>92.00803688215818</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>9.275596830496966</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>310.5646730415718</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>17.28106335582409</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>352.1678270122753</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1388,7 +1390,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>33.20988753395294</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.10247806622</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1774,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>134.6751203255737</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>236.393796853409</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>190.3226398274045</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1940,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250818</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>269.88545101545</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>163.2973078292011</v>
       </c>
       <c r="H20" t="n">
-        <v>269.1420589799861</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -2138,7 +2140,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>22.75446130335949</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>118.2537958723261</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>389.5757996680409</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>76.14912691316206</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>76.48464164091926</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2114886365804</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>24.25641376481842</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>163.2962083791358</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2649,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2716,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>115.0492085588718</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2734,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>157.3319317312891</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>139.8041854157604</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="32">
@@ -3029,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>351.2391879744746</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3120,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>162.3364906735235</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228957</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>169.0167291702126</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>285.5453800016779</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3567277916633</v>
+        <v>113.7906854197993</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3901,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01985932823273096</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>248.2883432671951</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>26.64360395382558</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>43.31785343913997</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>94.65568569260671</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1152.640269254487</v>
+        <v>1731.411330760289</v>
       </c>
       <c r="C2" t="n">
-        <v>1152.640269254487</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D2" t="n">
-        <v>1152.640269254487</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E2" t="n">
-        <v>792.1236065739693</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
@@ -4364,16 +4366,16 @@
         <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y2" t="n">
-        <v>1152.640269254487</v>
+        <v>2118.011170824411</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.1711973675267</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C5" t="n">
-        <v>412.208680427115</v>
+        <v>770.1842990371767</v>
       </c>
       <c r="D5" t="n">
-        <v>53.94298182036446</v>
+        <v>411.9186004304262</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036446</v>
+        <v>411.9186004304262</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036446</v>
+        <v>411.9186004304262</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1557.91036940746</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X5" t="n">
-        <v>1557.91036940746</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.771037431648</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G7" t="n">
-        <v>283.2093037137952</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1882.054803223514</v>
+        <v>1697.251320989585</v>
       </c>
       <c r="C8" t="n">
-        <v>1882.054803223514</v>
+        <v>1328.288804049173</v>
       </c>
       <c r="D8" t="n">
-        <v>1523.789104616764</v>
+        <v>970.0231054424225</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>970.0231054424225</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4808,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1697.251320989585</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>1697.251320989585</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036446</v>
@@ -4884,19 +4886,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4926,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5118,31 +5120,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
         <v>2488.762748073963</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5224,25 +5226,25 @@
         <v>550.5654064942404</v>
       </c>
       <c r="S13" t="n">
-        <v>550.5654064942404</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T13" t="n">
-        <v>550.5654064942404</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2476.569858826099</v>
+        <v>422.9054987607762</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2118.304160219349</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="C17" t="n">
-        <v>1749.341643278937</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>703.7104995932134</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>703.7104995932134</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>292.7245948036058</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X17" t="n">
-        <v>2504.904000283471</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y17" t="n">
-        <v>2504.904000283471</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424003</v>
@@ -5604,13 +5606,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5631,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
         <v>53.94298182036445</v>
@@ -5677,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>455.5174175241617</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>200.8329293182748</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1498.518225097183</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="C20" t="n">
-        <v>1129.555708156772</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="D20" t="n">
-        <v>1129.555708156772</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="E20" t="n">
-        <v>743.7674555585272</v>
+        <v>218.8897574054161</v>
       </c>
       <c r="F20" t="n">
-        <v>743.7674555585272</v>
+        <v>218.8897574054161</v>
       </c>
       <c r="G20" t="n">
-        <v>325.8036474567141</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.752638628377</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>1871.983983358263</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X20" t="n">
-        <v>1498.518225097183</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y20" t="n">
-        <v>1498.518225097183</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>380.6911546495019</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C22" t="n">
-        <v>380.6911546495019</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D22" t="n">
-        <v>380.6911546495019</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E22" t="n">
-        <v>380.6911546495019</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F22" t="n">
-        <v>380.6911546495019</v>
+        <v>403.6754589963297</v>
       </c>
       <c r="G22" t="n">
-        <v>211.6913543878343</v>
+        <v>234.6756587346621</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>76.92728616719222</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>76.92728616719222</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S22" t="n">
-        <v>608.6807055475192</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T22" t="n">
-        <v>608.6807055475192</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U22" t="n">
-        <v>608.6807055475192</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V22" t="n">
-        <v>608.6807055475192</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W22" t="n">
-        <v>608.6807055475192</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X22" t="n">
-        <v>380.6911546495019</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y22" t="n">
-        <v>380.6911546495019</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>858.4397953655689</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="C23" t="n">
-        <v>858.4397953655689</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D23" t="n">
-        <v>858.4397953655689</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E23" t="n">
-        <v>858.4397953655689</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>447.4538905759613</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5999,7 +6001,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.336936304455</v>
+        <v>2565.202091535421</v>
       </c>
       <c r="U23" t="n">
-        <v>2302.336936304455</v>
+        <v>2311.440306173512</v>
       </c>
       <c r="V23" t="n">
-        <v>1971.274048960885</v>
+        <v>1980.377418829941</v>
       </c>
       <c r="W23" t="n">
-        <v>1618.50539369077</v>
+        <v>1980.377418829941</v>
       </c>
       <c r="X23" t="n">
-        <v>1245.039635429691</v>
+        <v>1606.911660568862</v>
       </c>
       <c r="Y23" t="n">
-        <v>1245.039635429691</v>
+        <v>1216.77232859305</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6069,40 +6071,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>131.2001955990708</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>131.2001955990708</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>131.2001955990708</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>131.2001955990708</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>131.2001955990708</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>131.2001955990708</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W25" t="n">
-        <v>2407.731920981262</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X25" t="n">
-        <v>2179.742370083244</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>131.2001955990708</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>952.5674858910851</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C26" t="n">
-        <v>952.5674858910851</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="D26" t="n">
-        <v>952.5674858910851</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="E26" t="n">
-        <v>952.5674858910851</v>
+        <v>907.3941227570563</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>496.4082179674487</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>78.44440986563558</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>78.44440986563558</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2300.997248833456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2047.235463471548</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>1716.172576127977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W26" t="n">
-        <v>1716.172576127977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X26" t="n">
-        <v>1342.706817866897</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y26" t="n">
-        <v>952.5674858910851</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6318,28 +6320,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6348,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>363.7239216122614</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>215.8108280298683</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>215.8108280298683</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>513.8405610245972</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="W28" t="n">
-        <v>513.8405610245972</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X28" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>618.3948626148824</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>618.3948626148824</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D29" t="n">
-        <v>618.3948626148824</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E29" t="n">
-        <v>618.3948626148824</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4089578252748</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1540.921096014692</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1167.455337753612</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>777.3160057778007</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2469.840903686825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2469.840903686825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2469.840903686825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2321.927810104432</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2469.840903686825</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2469.840903686825</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>2469.840903686825</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>2469.840903686825</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X31" t="n">
-        <v>2469.840903686825</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y31" t="n">
-        <v>2469.840903686825</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,70 +6676,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
-        <v>819.7159451700475</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>819.7159451700475</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>408.7300403804399</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
         <v>2323.683332757143</v>
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
         <v>1194.968834417902</v>
@@ -6798,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>217.9192350259437</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6911,70 +6913,70 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776798</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776798</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785536</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889461</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
         <v>2323.683332757143</v>
@@ -7011,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>343.1165921657965</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U37" t="n">
-        <v>53.94298182036446</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V37" t="n">
-        <v>53.94298182036446</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.959449965771</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253592</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036446</v>
+        <v>753.3585633793437</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>342.3726585897361</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7190,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2669.933035536899</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2317.164380266785</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X38" t="n">
-        <v>1943.698622005704</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y38" t="n">
-        <v>1553.559290029893</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7336,43 +7338,43 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>2601.553869014546</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018223</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018223</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981262</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>2179.742370083245</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
         <v>2022.963088632153</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.9054987607762</v>
+        <v>903.5661947296837</v>
       </c>
       <c r="C41" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2256.941971675474</v>
+        <v>2351.00282758026</v>
       </c>
       <c r="V41" t="n">
-        <v>1925.879084331904</v>
+        <v>2019.939940236689</v>
       </c>
       <c r="W41" t="n">
-        <v>1573.11042906179</v>
+        <v>1667.171284966575</v>
       </c>
       <c r="X41" t="n">
-        <v>1199.64467080071</v>
+        <v>1293.705526705495</v>
       </c>
       <c r="Y41" t="n">
-        <v>809.505338824898</v>
+        <v>903.5661947296837</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>351.9927747426011</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C43" t="n">
-        <v>351.9927747426011</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D43" t="n">
-        <v>201.8761353302654</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E43" t="n">
-        <v>53.96304174787227</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>579.9823256406185</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>579.9823256406185</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>579.9823256406185</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X43" t="n">
-        <v>351.9927747426011</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y43" t="n">
-        <v>351.9927747426011</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1238.153685885794</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C44" t="n">
-        <v>869.1911689453825</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D44" t="n">
-        <v>869.1911689453825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E44" t="n">
-        <v>869.1911689453825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>458.205264155775</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>458.205264155775</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7664,10 +7666,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7679,19 +7681,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V44" t="n">
-        <v>2388.358616186807</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.358616186807</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.892857925728</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.753525949916</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.69838933464726</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084171</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y46" t="n">
-        <v>279.346854164887</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9410,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,10 +9968,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719081</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.01887401854964</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22564,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22606,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>258.2338334056208</v>
       </c>
     </row>
     <row r="3">
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>211.3196238416951</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>245.7134960426232</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22945,25 +22947,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>64.16285195963697</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.6900249618413</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>71.36569703069</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>389.5949823858874</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,7 +23074,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -23081,7 +23083,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>56.01837628787166</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>54.70821872943611</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>112.2111604889783</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>45.19995918853699</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>86.34584229143783</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74592769735753</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>56.01837628787166</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>177.390373167386</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>179.4084608510645</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23911,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23944,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>16.39642322652776</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>250.4868621915939</v>
       </c>
       <c r="H20" t="n">
-        <v>54.78071378437107</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>22.44549788517751</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>93.89174307769284</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>24.20837035275406</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>140.2991934444957</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24379,13 +24381,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>79.68624720087588</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.37316471551443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>127.6749024800428</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>53.15211197852202</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24604,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>52.26059370017914</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24658,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724722</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>225.4019099321915</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24844,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>5.616862607170873</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="32">
@@ -24917,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>62.54498204632034</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.49548950841384</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25093,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789928</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>56.01837628787166</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>128.2387900191171</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25448,7 +25450,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>300.8083635436241</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744445</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>31.86743971662597</v>
+        <v>137.43348208849</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4011886946985</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,16 +25842,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>75.63442949716205</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,13 +25921,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>224.5805635544637</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9289676594879</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>40.30993609973154</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149697</v>
@@ -26320,19 +26322,19 @@
         <v>274694.9795149698</v>
       </c>
       <c r="E2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="F2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="G2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="F2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="G2" t="n">
-        <v>274694.9795149696</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="J2" t="n">
         <v>274694.9795149697</v>
@@ -26341,19 +26343,19 @@
         <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="N2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="C4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="G4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="D4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9371.018034361485</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9371.018034361485</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9371.018034361481</v>
-      </c>
       <c r="H4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="K4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="M4" t="n">
         <v>9371.018034361485</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9371.018034361485</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="P4" t="n">
         <v>9371.018034361483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9371.018034361481</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26481,37 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407502.9957973456</v>
+        <v>-407502.9957973457</v>
       </c>
       <c r="C6" t="n">
         <v>182464.8834171988</v>
@@ -26528,40 +26530,40 @@
         <v>182464.8834171988</v>
       </c>
       <c r="E6" t="n">
+        <v>216092.4834171989</v>
+      </c>
+      <c r="F6" t="n">
         <v>216092.4834171988</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>216092.4834171988</v>
+      </c>
+      <c r="H6" t="n">
         <v>216092.4834171989</v>
       </c>
-      <c r="G6" t="n">
-        <v>216092.4834171986</v>
-      </c>
-      <c r="H6" t="n">
-        <v>216092.4834171988</v>
-      </c>
       <c r="I6" t="n">
-        <v>216092.4834171987</v>
+        <v>216092.4834171989</v>
       </c>
       <c r="J6" t="n">
-        <v>39669.26422460579</v>
+        <v>39669.26422460574</v>
       </c>
       <c r="K6" t="n">
         <v>216092.4834171988</v>
       </c>
       <c r="L6" t="n">
-        <v>216092.4834171986</v>
+        <v>216092.4834171988</v>
       </c>
       <c r="M6" t="n">
         <v>216092.4834171988</v>
       </c>
       <c r="N6" t="n">
-        <v>216092.4834171988</v>
+        <v>216092.4834171989</v>
       </c>
       <c r="O6" t="n">
-        <v>216092.4834171987</v>
+        <v>216092.4834171989</v>
       </c>
       <c r="P6" t="n">
-        <v>216092.4834171989</v>
+        <v>216092.4834171986</v>
       </c>
     </row>
   </sheetData>
@@ -26750,34 +26752,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26799,37 +26801,37 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -32230,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33409,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,22 +33593,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,22 +33830,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,22 +34067,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
         <v>297.223041434342</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35744,7 +35746,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36206,19 +36208,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624593</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37625,22 +37627,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
